--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/8.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/8.xlsx
@@ -479,13 +479,13 @@
         <v>0.1088787333254966</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.627683615082153</v>
+        <v>-1.619211457161752</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01564979925369231</v>
+        <v>-0.02005997255125639</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2275566172358409</v>
+        <v>-0.2280477112016867</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1216665718233604</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.65309300575731</v>
+        <v>-1.642073297889084</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01593154867640514</v>
+        <v>-0.02824329796289866</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2034347742019078</v>
+        <v>-0.2087407926598124</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1354804256678188</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705372476852191</v>
+        <v>-1.686740812513355</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02337328280159434</v>
+        <v>-0.0624199751437005</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2132645236144306</v>
+        <v>-0.2172090155324101</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1422866791362022</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.817112094273327</v>
+        <v>-1.805792535762493</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0278686814120291</v>
+        <v>-0.06734822901249295</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2315561998230659</v>
+        <v>-0.2294485882196443</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1378968322366838</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.780467355110326</v>
+        <v>-1.750108461308239</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.004518107747533398</v>
+        <v>-0.0470732887110188</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2267066469103385</v>
+        <v>-0.2245345005229435</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1223950172253477</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.602708653684475</v>
+        <v>-1.584178513578963</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06001038014930959</v>
+        <v>0.01282600895007888</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2115504167913342</v>
+        <v>-0.2116133775561862</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.102112791367548</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.342644492405812</v>
+        <v>-1.334052709032192</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09783405963416512</v>
+        <v>0.06491344971216124</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2003748810300993</v>
+        <v>-0.1982609733501925</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.08345437092750525</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9373747061584777</v>
+        <v>-0.94678025741781</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1924263127478513</v>
+        <v>0.1521723477397075</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1758296268525364</v>
+        <v>-0.159856480809577</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.07045224419394587</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4949305233138248</v>
+        <v>-0.4907987231204105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2077635550658052</v>
+        <v>0.1642592405721754</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1305466707518369</v>
+        <v>-0.1205217429682728</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.06587193468830806</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02130659569532653</v>
+        <v>-0.01795708300519867</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1812759612925572</v>
+        <v>0.1516277371237374</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06694055806007608</v>
+        <v>-0.05820632595597856</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.07313120673846743</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5310182879882062</v>
+        <v>0.5290240057615181</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1431909946335657</v>
+        <v>0.1082666583701461</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02636886946975</v>
+        <v>0.03809531192344012</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.09298174976401297</v>
       </c>
       <c r="E13" t="n">
-        <v>1.097274814914371</v>
+        <v>1.092137216502446</v>
       </c>
       <c r="F13" t="n">
-        <v>0.025918700001058</v>
+        <v>0.000207097654611266</v>
       </c>
       <c r="G13" t="n">
-        <v>0.129838590427572</v>
+        <v>0.1429312814785511</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1240148470261189</v>
       </c>
       <c r="E14" t="n">
-        <v>1.701326688981208</v>
+        <v>1.702047589738764</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1772824465014969</v>
+        <v>-0.2076972179823901</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2496419078071312</v>
+        <v>0.2611432655264754</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1656451614544007</v>
       </c>
       <c r="E15" t="n">
-        <v>2.342486063832709</v>
+        <v>2.330940633577969</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4498144132399832</v>
+        <v>-0.4757180459192286</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3722863297006382</v>
+        <v>0.3827393906851961</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2177040757016254</v>
       </c>
       <c r="E16" t="n">
-        <v>2.965585143286406</v>
+        <v>2.963477531682984</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.687412599600322</v>
+        <v>-0.702132826422726</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5192540690756048</v>
+        <v>0.5190337063986227</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.280541027651094</v>
       </c>
       <c r="E17" t="n">
-        <v>3.565214023622388</v>
+        <v>3.551148588754445</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9294172524907421</v>
+        <v>-0.9397829554140678</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6801880801138723</v>
+        <v>0.6818140418661759</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3538987472715447</v>
       </c>
       <c r="E18" t="n">
-        <v>4.130907051703128</v>
+        <v>4.104449364293184</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.154261161911182</v>
+        <v>-1.159287791975055</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8150610565607643</v>
+        <v>0.8153081775628085</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4344691011799234</v>
       </c>
       <c r="E19" t="n">
-        <v>4.603506292873659</v>
+        <v>4.573667612391162</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.370759621950485</v>
+        <v>-1.376931350925104</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9908475120276251</v>
+        <v>0.9926812443039404</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5165463344628843</v>
       </c>
       <c r="E20" t="n">
-        <v>4.965478748141814</v>
+        <v>4.937138533862796</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.547609327333784</v>
+        <v>-1.568416286098258</v>
       </c>
       <c r="G20" t="n">
-        <v>1.125498551778414</v>
+        <v>1.125851132061585</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5930804632587044</v>
       </c>
       <c r="E21" t="n">
-        <v>5.30200246225678</v>
+        <v>5.269242402285149</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.763750485032552</v>
+        <v>-1.782689870109602</v>
       </c>
       <c r="G21" t="n">
-        <v>1.258625941019783</v>
+        <v>1.264300279952072</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6563746976071416</v>
       </c>
       <c r="E22" t="n">
-        <v>5.593591078496853</v>
+        <v>5.555244824663727</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.920206411670719</v>
+        <v>-1.949134522091543</v>
       </c>
       <c r="G22" t="n">
-        <v>1.365964600977762</v>
+        <v>1.371561812973108</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.702704254826046</v>
       </c>
       <c r="E23" t="n">
-        <v>5.754981555080298</v>
+        <v>5.717532492146312</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.050616256899163</v>
+        <v>-2.086459033319862</v>
       </c>
       <c r="G23" t="n">
-        <v>1.473352055528502</v>
+        <v>1.47662916333905</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7345362557025717</v>
       </c>
       <c r="E24" t="n">
-        <v>5.912591237734379</v>
+        <v>5.877545701998619</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.144448258777261</v>
+        <v>-2.168719633627717</v>
       </c>
       <c r="G24" t="n">
-        <v>1.515605024820698</v>
+        <v>1.52251811680145</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7573003954027201</v>
       </c>
       <c r="E25" t="n">
-        <v>6.004068507007011</v>
+        <v>5.964291469792621</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.178506884523965</v>
+        <v>-2.212911007467795</v>
       </c>
       <c r="G25" t="n">
-        <v>1.587322058044521</v>
+        <v>1.593621282567966</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7762880799743722</v>
       </c>
       <c r="E26" t="n">
-        <v>6.061038555083369</v>
+        <v>6.018011168383492</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.200595881862738</v>
+        <v>-2.230131563664385</v>
       </c>
       <c r="G26" t="n">
-        <v>1.654258795196954</v>
+        <v>1.639618843349736</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7941891161470395</v>
       </c>
       <c r="E27" t="n">
-        <v>6.049485254733021</v>
+        <v>5.997191617466048</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.195282780318788</v>
+        <v>-2.213657879540852</v>
       </c>
       <c r="G27" t="n">
-        <v>1.626872436505443</v>
+        <v>1.624062812373921</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8109651936269714</v>
       </c>
       <c r="E28" t="n">
-        <v>5.987338257766706</v>
+        <v>5.953572399576563</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.208337694910856</v>
+        <v>-2.223279858429363</v>
       </c>
       <c r="G28" t="n">
-        <v>1.621251614223278</v>
+        <v>1.606984704907809</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8263189660309247</v>
       </c>
       <c r="E29" t="n">
-        <v>5.887677663082432</v>
+        <v>5.857766577720355</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.158900115339483</v>
+        <v>-2.161415397895321</v>
       </c>
       <c r="G29" t="n">
-        <v>1.5944366244728</v>
+        <v>1.572233510747732</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8396951781214184</v>
       </c>
       <c r="E30" t="n">
-        <v>5.755809489138103</v>
+        <v>5.72487529134718</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.154959558469307</v>
+        <v>-2.147284641233845</v>
       </c>
       <c r="G30" t="n">
-        <v>1.528085422433491</v>
+        <v>1.504950489388613</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.849570047606936</v>
       </c>
       <c r="E31" t="n">
-        <v>5.560509918624478</v>
+        <v>5.545279709606771</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.100076659747794</v>
+        <v>-2.096339938353827</v>
       </c>
       <c r="G31" t="n">
-        <v>1.46456430677428</v>
+        <v>1.439674342409152</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8532552023136951</v>
       </c>
       <c r="E32" t="n">
-        <v>5.379050698244448</v>
+        <v>5.361618436476044</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.023103189668388</v>
+        <v>-2.009477693144848</v>
       </c>
       <c r="G32" t="n">
-        <v>1.42236642815133</v>
+        <v>1.397769231342764</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8489989694425141</v>
       </c>
       <c r="E33" t="n">
-        <v>5.1175762158331</v>
+        <v>5.107154635230968</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.984401994523407</v>
+        <v>-1.965771117194131</v>
       </c>
       <c r="G33" t="n">
-        <v>1.36363820071648</v>
+        <v>1.338017891479069</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8349487338300335</v>
       </c>
       <c r="E34" t="n">
-        <v>4.89631477393274</v>
+        <v>4.874215545469679</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.914635170990875</v>
+        <v>-1.893617293664147</v>
       </c>
       <c r="G34" t="n">
-        <v>1.267684421062869</v>
+        <v>1.244831237440704</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8111195335609022</v>
       </c>
       <c r="E35" t="n">
-        <v>4.608440842818936</v>
+        <v>4.582024079906147</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.87788890759455</v>
+        <v>-1.858596942234328</v>
       </c>
       <c r="G35" t="n">
-        <v>1.182574059135898</v>
+        <v>1.159711431399006</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7789128532242587</v>
       </c>
       <c r="E36" t="n">
-        <v>4.239295582415014</v>
+        <v>4.21560816865856</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.839468674862721</v>
+        <v>-1.81144011636972</v>
       </c>
       <c r="G36" t="n">
-        <v>1.133327722887763</v>
+        <v>1.11100813174772</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7413716960954921</v>
       </c>
       <c r="E37" t="n">
-        <v>3.930392755840633</v>
+        <v>3.916640550777829</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.800743082421361</v>
+        <v>-1.779308090027488</v>
       </c>
       <c r="G37" t="n">
-        <v>1.050787734185877</v>
+        <v>1.028973403183771</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7018600819754925</v>
       </c>
       <c r="E38" t="n">
-        <v>3.648082982320627</v>
+        <v>3.635067418206591</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.723306850720291</v>
+        <v>-1.710533685550936</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9760769165933395</v>
+        <v>0.956527599106785</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6641720921187586</v>
       </c>
       <c r="E39" t="n">
-        <v>3.308205033458169</v>
+        <v>3.297416706400774</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.686409481488321</v>
+        <v>-1.677184942427939</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8928569516310508</v>
+        <v>0.8783067188737472</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6290508859350245</v>
       </c>
       <c r="E40" t="n">
-        <v>2.980382497045754</v>
+        <v>2.974758526725346</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.647945963230657</v>
+        <v>-1.640512657930314</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8326869226810895</v>
+        <v>0.8193014640735484</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5943117211331056</v>
       </c>
       <c r="E41" t="n">
-        <v>2.66227952870737</v>
+        <v>2.662369247797284</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.626353568924654</v>
+        <v>-1.612245635540436</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7798156203965994</v>
+        <v>0.766826814607626</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5586704123294433</v>
       </c>
       <c r="E42" t="n">
-        <v>2.32986557851812</v>
+        <v>2.33389506746865</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.574879995619879</v>
+        <v>-1.565494119599563</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7194409689608688</v>
+        <v>0.7052747968691626</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5218680210070025</v>
       </c>
       <c r="E43" t="n">
-        <v>2.075231783207944</v>
+        <v>2.084989127740887</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.523805436162354</v>
+        <v>-1.514403032941264</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6443114622820657</v>
+        <v>0.6333295308727508</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4838625247375897</v>
       </c>
       <c r="E44" t="n">
-        <v>1.822445886346175</v>
+        <v>1.82990673698114</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.504880217257395</v>
+        <v>-1.494727006915445</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5589366651427164</v>
+        <v>0.547894921006792</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4460028409877983</v>
       </c>
       <c r="E45" t="n">
-        <v>1.597346985828085</v>
+        <v>1.610883550271271</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.427512455388102</v>
+        <v>-1.419654951934569</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5050501205249873</v>
+        <v>0.4966605986084547</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4079994708412511</v>
       </c>
       <c r="E46" t="n">
-        <v>1.38641268338258</v>
+        <v>1.398882062861524</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.367077991225762</v>
+        <v>-1.362337045632405</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4433548670464856</v>
+        <v>0.4349732152255594</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3692053701919145</v>
       </c>
       <c r="E47" t="n">
-        <v>1.235492581994027</v>
+        <v>1.245947216997706</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.322189326914949</v>
+        <v>-1.32140467838298</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3798306033490325</v>
+        <v>0.3686456234730698</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3298543131057573</v>
       </c>
       <c r="E48" t="n">
-        <v>1.027342719374103</v>
+        <v>1.046641767820371</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.243622162475225</v>
+        <v>-1.242956352386914</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2948776433341918</v>
+        <v>0.2981941016227723</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2905938340638699</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8709324392904535</v>
+        <v>0.8867403133256764</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.172847966705061</v>
+        <v>-1.175205847348769</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2510349147294824</v>
+        <v>0.2578881939836256</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2530727531493872</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7725688363621309</v>
+        <v>0.7790711093522241</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.100776779178945</v>
+        <v>-1.103353448480514</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2126760687433846</v>
+        <v>0.2142579579602918</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2195724547374768</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6384781474185254</v>
+        <v>0.6517518506684541</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.067288735363712</v>
+        <v>-1.063441832631253</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1714729702050965</v>
+        <v>0.1737490018544973</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1903463159945842</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4652116965648669</v>
+        <v>0.4913089335960323</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.032017327884045</v>
+        <v>-1.036750403381797</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1291365778994719</v>
+        <v>0.1363912320295468</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1641126513703938</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4050652779017251</v>
+        <v>0.4175645637439738</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.030126143909803</v>
+        <v>-1.031664747600874</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1014039350012751</v>
+        <v>0.1012890316054201</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1399670623861379</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2462042500462105</v>
+        <v>0.2653836730392594</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9702528175642064</v>
+        <v>-0.9803674644376847</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05482241312550253</v>
+        <v>0.05775638476760701</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1174532194051799</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1275011720324405</v>
+        <v>0.1451443523630999</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9458751964230621</v>
+        <v>-0.9590930219941847</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02786418763498565</v>
+        <v>0.02805936600602694</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.09621256017687554</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03930730664684165</v>
+        <v>0.05320746950704802</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.930511195780046</v>
+        <v>-0.9443444628275972</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.007522910250096411</v>
+        <v>-0.001571543952458511</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.07540465315292302</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07356717856075197</v>
+        <v>-0.05797337112602605</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9308480358720044</v>
+        <v>-0.9524876507516463</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05000726035312328</v>
+        <v>-0.04259363029179704</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.05506196665651091</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1274568712167236</v>
+        <v>-0.1163222599526426</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9125587206920511</v>
+        <v>-0.9385748957384695</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07962400413951702</v>
+        <v>-0.07459816108520392</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.03589244664783579</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2079962816154372</v>
+        <v>-0.1961832681100756</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9217596494656143</v>
+        <v>-0.948245669219741</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1065538972858505</v>
+        <v>-0.1049216394570617</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.01894319395009808</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.298891163813188</v>
+        <v>-0.2849296142072509</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9180323721863742</v>
+        <v>-0.9477553622634558</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1257411903745059</v>
+        <v>-0.1276929740849187</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.0050917794494906</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3932079635806465</v>
+        <v>-0.3817380862437285</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8993550612930202</v>
+        <v>-0.9278495294459266</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1468393426764203</v>
+        <v>-0.153103938779197</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.005346057095840012</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4995203630715376</v>
+        <v>-0.4827476153149575</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.889947149005006</v>
+        <v>-0.9215896554005137</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1753951975750574</v>
+        <v>-0.1774823469299021</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.01272961182168747</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5644423557487057</v>
+        <v>-0.5655268549232819</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8986262904398581</v>
+        <v>-0.9433764410679972</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1969403713074212</v>
+        <v>-0.2026808190428048</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.01783810942810189</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6818484420065241</v>
+        <v>-0.6748582230888277</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9212488802607521</v>
+        <v>-0.9725280622040466</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2329696689939939</v>
+        <v>-0.2346979419891821</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.02175496778903443</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.803561044580221</v>
+        <v>-0.7965661036051608</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9580250500203821</v>
+        <v>-1.01049419041938</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2776954223257529</v>
+        <v>-0.2782841054771194</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.0260419222910343</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9006725152975489</v>
+        <v>-0.8866621710988515</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9868366830262305</v>
+        <v>-1.038039525042142</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3044537473878647</v>
+        <v>-0.3034007285957145</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.03178558847942838</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.943145060257166</v>
+        <v>-0.936786810016672</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.02649252076828</v>
+        <v>-1.074674820090415</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.342669357633924</v>
+        <v>-0.3414416227193095</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.03918249404243585</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9894763130926518</v>
+        <v>-0.9737542230995399</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.035417996195616</v>
+        <v>-1.083475160997608</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3658389190994702</v>
+        <v>-0.3637187153430781</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.04727642411157978</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.051606782858193</v>
+        <v>-1.035236196987105</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.083265029444914</v>
+        <v>-1.128307947629615</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3848058495111435</v>
+        <v>-0.3805591459218742</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.05483647777483511</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.078370616987229</v>
+        <v>-1.057541621955058</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.124818347237691</v>
+        <v>-1.170885951870359</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3968832982288836</v>
+        <v>-0.3858195178252611</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06134896514664766</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.095098505198852</v>
+        <v>-1.061132746580305</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.134308895529574</v>
+        <v>-1.180467793271277</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4267046645010465</v>
+        <v>-0.4129288491514229</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.06590055501963858</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.117673874446108</v>
+        <v>-1.080246060770259</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.17386399604786</v>
+        <v>-1.212178769498562</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.40422452341063</v>
+        <v>-0.4057875243980816</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.06869085078605017</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.089102279356257</v>
+        <v>-1.040395044657168</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.200313026352636</v>
+        <v>-1.232940868718078</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4110652105118028</v>
+        <v>-0.4134356833084817</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.07098511696663186</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.091022582684244</v>
+        <v>-1.03489148679954</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.220423481655935</v>
+        <v>-1.250289707473055</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4141770463146143</v>
+        <v>-0.4109912316131017</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.07334661037710172</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.046868985303078</v>
+        <v>-0.9846236121416818</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.2394045782397</v>
+        <v>-1.270085358952093</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4202260017977729</v>
+        <v>-0.4087608465182186</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.07651793050854742</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9595502745489225</v>
+        <v>-0.8986782330708609</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.252548424912121</v>
+        <v>-1.286700704796543</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3935274894622706</v>
+        <v>-0.3828776760875501</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.07993257942875785</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8987734612276996</v>
+        <v>-0.8362345335001807</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.263814466772831</v>
+        <v>-1.300674059545889</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.376631968214229</v>
+        <v>-0.3627632857364486</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.08260597558786294</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7521236737152359</v>
+        <v>-0.6879493401206855</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.249276039158937</v>
+        <v>-1.291527434432011</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3321076893299965</v>
+        <v>-0.3199326514267356</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.08268512033418147</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.639472699222867</v>
+        <v>-0.5732993613442647</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.270365534355684</v>
+        <v>-1.311922787196265</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3174205169091397</v>
+        <v>-0.3008004490073258</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.07941064135437785</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4836385101376137</v>
+        <v>-0.4207155217444974</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.267051437095785</v>
+        <v>-1.307447063824846</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2964246758501098</v>
+        <v>-0.2772279386467267</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.07225542281707216</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3398644555597662</v>
+        <v>-0.2723390352559667</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.281999896690778</v>
+        <v>-1.320247774328824</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2717897025826328</v>
+        <v>-0.2544156795217158</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.06112645449043815</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1793255233209452</v>
+        <v>-0.1069033295307792</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.293063677094401</v>
+        <v>-1.329324355591805</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2470476960149073</v>
+        <v>-0.2247076426262866</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.04685102243443864</v>
       </c>
       <c r="E83" t="n">
-        <v>0.01504537591111285</v>
+        <v>0.08341132242568693</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.273261729538877</v>
+        <v>-1.307960981067951</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1849636598134443</v>
+        <v>-0.1676415793835302</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.03122163621435538</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1787181802204436</v>
+        <v>0.2465096097557429</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.272975258058801</v>
+        <v>-1.291734417946462</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1616917871050136</v>
+        <v>-0.1437070446250319</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.01407543460436089</v>
       </c>
       <c r="E85" t="n">
-        <v>0.35005803166963</v>
+        <v>0.4141882927287839</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.19231858323555</v>
+        <v>-1.205965329017227</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.116847982339157</v>
+        <v>-0.09980922535107704</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.004756212277310588</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5506226961440062</v>
+        <v>0.6153652506413461</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.120903761683017</v>
+        <v>-1.132594788706478</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06461573181791495</v>
+        <v>-0.04620128211781821</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.02488858572308852</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7379907843053974</v>
+        <v>0.8034510915220504</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.038614829030977</v>
+        <v>-1.047673309074063</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01965387561796081</v>
+        <v>-0.002769372503768335</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.04489851986636337</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8951046509362682</v>
+        <v>0.9569226779062314</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9134079040079928</v>
+        <v>-0.9185344842860691</v>
       </c>
       <c r="G88" t="n">
-        <v>0.005327381856202403</v>
+        <v>0.02049463010905583</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.06183930003369886</v>
       </c>
       <c r="E89" t="n">
-        <v>1.034721721014761</v>
+        <v>1.088389476974629</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8075842374542657</v>
+        <v>-0.8133860719353799</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03763255030177772</v>
+        <v>0.04666269800067976</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.07347079763501972</v>
       </c>
       <c r="E90" t="n">
-        <v>1.13555023788704</v>
+        <v>1.188739492034033</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6628216988682414</v>
+        <v>-0.6766951034033856</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05541739235335419</v>
+        <v>0.06989522023107791</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.07829406920139505</v>
       </c>
       <c r="E91" t="n">
-        <v>1.233238586612325</v>
+        <v>1.281564121674498</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4885777821402552</v>
+        <v>-0.502940706622124</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02989467230146354</v>
+        <v>0.04071605376040577</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.07539787422472932</v>
       </c>
       <c r="E92" t="n">
-        <v>1.269626760658554</v>
+        <v>1.314722408483818</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3401729633075412</v>
+        <v>-0.3537362860757892</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05624375239203705</v>
+        <v>0.06822046388601398</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06469847063667128</v>
       </c>
       <c r="E93" t="n">
-        <v>1.298837407511652</v>
+        <v>1.342266169087459</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2323762637852636</v>
+        <v>-0.2406445862294561</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04275283450336886</v>
+        <v>0.05217648698259608</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04665263513599362</v>
       </c>
       <c r="E94" t="n">
-        <v>1.248679714192284</v>
+        <v>1.297677355419253</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1053906971552093</v>
+        <v>-0.1049531198394877</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05994112330797237</v>
+        <v>0.06545176425164607</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.02292767177169777</v>
       </c>
       <c r="E95" t="n">
-        <v>1.217019893586442</v>
+        <v>1.260617075208229</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0159659488167533</v>
+        <v>-0.01884955184697616</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0160637662825944</v>
+        <v>0.0220214286567175</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.003926971845605912</v>
       </c>
       <c r="E96" t="n">
-        <v>1.128179106341989</v>
+        <v>1.173938990236443</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06078951961435344</v>
+        <v>0.05688752621264903</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02538960129598052</v>
+        <v>-0.01250782880725569</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.03178741457839931</v>
       </c>
       <c r="E97" t="n">
-        <v>1.066203677459896</v>
+        <v>1.110624071082122</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1084822989897643</v>
+        <v>0.1030110085241231</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01258180770595682</v>
+        <v>-0.0168694357923799</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0583748905208201</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9651217435090867</v>
+        <v>1.011734745767285</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1066753250385111</v>
+        <v>0.1024758420228808</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06468813669749479</v>
+        <v>-0.05206607736378457</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08034604025141678</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9048761616413029</v>
+        <v>0.938300457682123</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1210775999984124</v>
+        <v>0.1195980220243897</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05668424946568079</v>
+        <v>-0.05058964742800453</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09547849163826436</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8532530565200043</v>
+        <v>0.8775669298867359</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1132956494627018</v>
+        <v>0.1092740306077785</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06439379512181156</v>
+        <v>-0.05615223100268116</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1047220903826561</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7722949570350246</v>
+        <v>0.7908101439588846</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1084193382249122</v>
+        <v>0.09956233262935328</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06376890953065519</v>
+        <v>-0.06046346937592374</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1090048077336568</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7474742495112341</v>
+        <v>0.7558008106629147</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1093039369710832</v>
+        <v>0.1053500009383759</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06356900910225</v>
+        <v>-0.06020847827827303</v>
       </c>
     </row>
   </sheetData>
